--- a/IT002-OOP/Điểm thực hành/it002m21mmcl/it002m21mmcl2.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m21mmcl/it002m21mmcl2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m21mmcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB15C58-29C1-42C8-8D24-6C1FF4E45FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A396D-F29F-4D1F-9A00-2071EDE9BB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Ngô Thế Anh</t>
   </si>
   <si>
-    <t>Nguyễn Ngọc Hồng Anh</t>
-  </si>
-  <si>
     <t>Nguyễn Tuấn Anh</t>
   </si>
   <si>
@@ -121,7 +118,7 @@
     <t>Nguyễn Trần Thành Tâm</t>
   </si>
   <si>
-    <t>thi bù ngày 2/6</t>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -495,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,16 +527,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -598,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I24" si="0">C3/900+D3/800+E3/800+F3/800+G3/800+H3/2</f>
+        <f t="shared" ref="I3:I23" si="0">C3/900+D3/800+E3/800+F3/800+G3/800+H3/2</f>
         <v>0</v>
       </c>
     </row>
@@ -684,12 +681,12 @@
       <c r="G6" s="3">
         <v>800</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H6" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0625</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -720,6 +717,9 @@
       <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>8.25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>21521404</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1004,121 +1004,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>21521833</v>
+        <v>21521837</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>21521837</v>
+        <v>21521839</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="D19" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E19" s="3">
-        <v>700</v>
-      </c>
-      <c r="F19" s="3">
-        <v>300</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>400</v>
+      </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>2.875</v>
+        <v>2.7361111111111112</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>21521839</v>
+        <v>21521858</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>700</v>
+      </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>800</v>
+      </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>2.125</v>
+        <v>6.4027777777777777</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>21521858</v>
+        <v>21521865</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3">
+        <v>900</v>
+      </c>
+      <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="D21" s="3">
-        <v>800</v>
-      </c>
-      <c r="E21" s="3">
-        <v>500</v>
-      </c>
       <c r="F21" s="3">
-        <v>400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>800</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3">
         <v>5</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>6.4027777777777777</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>21521865</v>
+        <v>21522395</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -1130,32 +1132,34 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>800</v>
+      </c>
       <c r="H22" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>21522395</v>
+        <v>21522553</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>900</v>
+        <v>589.29</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>800</v>
@@ -1167,39 +1171,9 @@
         <v>800</v>
       </c>
       <c r="H23" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>21522553</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3">
-        <v>589.29</v>
-      </c>
-      <c r="D24" s="3">
-        <v>500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="4">
         <f t="shared" si="0"/>
         <v>5.7797666666666672</v>
       </c>
